--- a/Data Files/testdata.xlsx
+++ b/Data Files/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>First Name</t>
   </si>
@@ -176,6 +176,84 @@
   </si>
   <si>
     <t>Nurse</t>
+  </si>
+  <si>
+    <t>Toan</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>Tuan</t>
+  </si>
+  <si>
+    <t>Thuc</t>
+  </si>
+  <si>
+    <t>Nguyne</t>
+  </si>
+  <si>
+    <t>Nhat</t>
+  </si>
+  <si>
+    <t>Huynh</t>
+  </si>
+  <si>
+    <t>Hoa</t>
+  </si>
+  <si>
+    <t>Phuong</t>
+  </si>
+  <si>
+    <t>Doan</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>qqqq@gmail.com</t>
+  </si>
+  <si>
+    <t>wwww@gmail.com</t>
+  </si>
+  <si>
+    <t>rrrrr@gmail.com</t>
+  </si>
+  <si>
+    <t>oii@gmail.com</t>
+  </si>
+  <si>
+    <t>ppooo@gmail.com</t>
+  </si>
+  <si>
+    <t>pppppppp@gmail.com</t>
+  </si>
+  <si>
+    <t>lmm@gmail.com</t>
+  </si>
+  <si>
+    <t>lkkjn@gmail.com</t>
+  </si>
+  <si>
+    <t>zzxxx@gmail.com</t>
+  </si>
+  <si>
+    <t>xzczxczxczxc@gmail.com</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>nguy</t>
+  </si>
+  <si>
+    <t>asdd123@gmail.com</t>
+  </si>
+  <si>
+    <t>SW</t>
   </si>
 </sst>
 </file>
@@ -538,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +628,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -814,11 +892,241 @@
         <v>51</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="6">
+        <v>15656</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="6">
+        <v>132323</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>64</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="6">
+        <v>21323</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4998</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7146</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="6">
+        <v>564</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="6">
+        <v>132</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="6">
+        <v>8953</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="6">
+        <v>65656</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3196</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24">
+        <v>9977</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D14" r:id="rId2"/>
+    <hyperlink ref="D15" r:id="rId3"/>
+    <hyperlink ref="D16" r:id="rId4"/>
+    <hyperlink ref="D17" r:id="rId5"/>
+    <hyperlink ref="D18" r:id="rId6"/>
+    <hyperlink ref="D19" r:id="rId7"/>
+    <hyperlink ref="D20" r:id="rId8"/>
+    <hyperlink ref="D21" r:id="rId9"/>
+    <hyperlink ref="D22" r:id="rId10"/>
+    <hyperlink ref="D23" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>